--- a/biology/Botanique/Allium_atrorubens/Allium_atrorubens.xlsx
+++ b/biology/Botanique/Allium_atrorubens/Allium_atrorubens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium atrorubens, appelé « dark red onion » en anglais, est une espèce d’oignon sauvage de la famille des Amaryllidacées. Cette plante est originaire du sud-ouest des États-Unis où elle pousse dans les sols sablonneux du désert de Mojave, du Grand Bassin et des déserts de plus haute altitude du Nevada [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium atrorubens, appelé « dark red onion » en anglais, est une espèce d’oignon sauvage de la famille des Amaryllidacées. Cette plante est originaire du sud-ouest des États-Unis où elle pousse dans les sols sablonneux du désert de Mojave, du Grand Bassin et des déserts de plus haute altitude du Nevada .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Allium atrorubens var. atrorubens[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Allium atrorubens var. atrorubens.
 Allium atrorubens var. cristatum (S.Watson) McNeal, Madroño 39: 86 (1992).
 Allium atrorubens subsp. inyonis (M.E.Jones) Traub, Pl. Life 28: 66 (1972).
 Allium atrorubens var. inyonis (M.E.Jones) Ownbey &amp; Aase in A.Cronquist &amp; al, Intermount. Fl. 6: 515 (1977).</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium atrorubens pousse à partir d’un bulbe brun rougeâtre  ovoïde à globuleux, de 1,5 cm de diamètre. La hampe florale est courte et entourée de quelques feuilles tubulaires enroulées persistantes. Au sommet de la tige se trouve une inflorescence pouvant contenir de 5 à 50 fleurs campanulées de 8–12 mm. Les tépales sont généralement dressés, rose pâle à pourpre rougeâtre foncé, rarement blancs, lancéolés à ovales. Chaque fleur mesure environ 1 cm de large. Les styles sont linéaires, égaux aux étamines[1],[3],[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium atrorubens pousse à partir d’un bulbe brun rougeâtre  ovoïde à globuleux, de 1,5 cm de diamètre. La hampe florale est courte et entourée de quelques feuilles tubulaires enroulées persistantes. Au sommet de la tige se trouve une inflorescence pouvant contenir de 5 à 50 fleurs campanulées de 8–12 mm. Les tépales sont généralement dressés, rose pâle à pourpre rougeâtre foncé, rarement blancs, lancéolés à ovales. Chaque fleur mesure environ 1 cm de large. Les styles sont linéaires, égaux aux étamines.
 </t>
         </is>
       </c>
